--- a/odkx/forms/hh_member_snake.xlsx
+++ b/odkx/forms/hh_member_snake.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="517">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1523,6 +1523,21 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -1545,6 +1560,21 @@
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -5955,7 +5985,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -5963,34 +5993,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>56</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>202101290001</v>
@@ -5998,26 +6048,86 @@
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_snake.xlsx
+++ b/odkx/forms/hh_member_snake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="519">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1244,6 +1244,9 @@
     <t xml:space="preserve">valuesList</t>
   </si>
   <si>
+    <t xml:space="preserve">isSessionVariable</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assigned by household form</t>
   </si>
   <si>
@@ -1257,6 +1260,9 @@
   </si>
   <si>
     <t xml:space="preserve">hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_candidate</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
@@ -4969,9 +4975,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4981,7 +4987,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,48 +5004,54 @@
       <c r="D1" s="0" t="s">
         <v>405</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>47</v>
@@ -5046,130 +5059,130 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>207</v>
+        <v>422</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,311 +5190,308 @@
         <v>426</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>425</v>
+        <v>24</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" s="6" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>21</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C39" s="3" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>450</v>
+      </c>
       <c r="B49" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>30</v>
@@ -5492,7 +5502,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>30</v>
@@ -5503,10 +5513,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>453</v>
+        <v>30</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,261 +5527,258 @@
         <v>454</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>60</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>453</v>
+        <v>30</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>307</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
-        <v>459</v>
+        <v>217</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>461</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="D59" s="0" t="s">
-        <v>379</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>143</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>296</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>30</v>
@@ -5779,7 +5789,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>30</v>
@@ -5790,182 +5800,193 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="8" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>364</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="8" t="s">
-        <v>489</v>
+        <v>364</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>95</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>353</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="8" t="s">
-        <v>366</v>
+        <v>496</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>366</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="8" t="s">
-        <v>495</v>
+        <v>366</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>68</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5987,7 +6008,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6006,41 +6027,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>202101290001</v>
@@ -6048,29 +6069,29 @@
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
@@ -6085,49 +6106,49 @@
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_snake.xlsx
+++ b/odkx/forms/hh_member_snake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="396">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.hint.text</t>
+    <t xml:space="preserve">display.prompt</t>
   </si>
   <si>
     <t xml:space="preserve">required</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">display.constraint_message.text</t>
+    <t xml:space="preserve">disaply.constraint_message</t>
   </si>
   <si>
     <t xml:space="preserve">inputAttributes.min</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">Snake Bite details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59a. Who was bitten?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{ data.name }} {{data.surname }} [{{ data.id }}]</t>
+    <t xml:space="preserve">snake_bite_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q59a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_id</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">snake_bite_num_times</t>
   </si>
   <si>
-    <t xml:space="preserve">59b. How many times (separate instances) was {{data.name}} bitten?</t>
+    <t xml:space="preserve">q59b</t>
   </si>
   <si>
     <t xml:space="preserve">select_multiple</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">snake_bite_months</t>
   </si>
   <si>
-    <t xml:space="preserve">59c. In what month(s) was {{data.name}} bitten? (check all that apply)</t>
+    <t xml:space="preserve">q59c</t>
   </si>
   <si>
     <t xml:space="preserve">countSelected(data('snake_bite_months')) &lt;= data('snake_bite_num_times') </t>
   </si>
   <si>
-    <t xml:space="preserve">You cannot select more months than times bitten.</t>
+    <t xml:space="preserve">bite_too_many_months</t>
   </si>
   <si>
     <t xml:space="preserve">select_one</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">snake_bite_miss_work_school</t>
   </si>
   <si>
-    <t xml:space="preserve">59d. Did this person miss school/work days because of the bite?</t>
+    <t xml:space="preserve">q59d</t>
   </si>
   <si>
     <t xml:space="preserve">if</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">snake_bite_miss_work_school_days</t>
   </si>
   <si>
-    <t xml:space="preserve">59d(i). How many days?</t>
+    <t xml:space="preserve">q59di</t>
   </si>
   <si>
     <t xml:space="preserve">dk</t>
@@ -155,15 +155,12 @@
     <t xml:space="preserve">snake_bite_occur</t>
   </si>
   <si>
-    <t xml:space="preserve">59e. Where did the bites occur? (check all that apply)</t>
+    <t xml:space="preserve">q59e</t>
   </si>
   <si>
     <t xml:space="preserve">countSelected(data('snake_bite_occur')) &lt;= data('snake_bite_num_times')</t>
   </si>
   <si>
-    <t xml:space="preserve">You cannot select more places than times bitten.</t>
-  </si>
-  <si>
     <t xml:space="preserve">selected(data('snake_bite_occur'), 'other')</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t xml:space="preserve">snake_bite_occur_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify</t>
+    <t xml:space="preserve">specify</t>
   </si>
   <si>
     <t xml:space="preserve">bite_outcome</t>
@@ -182,7 +179,7 @@
     <t xml:space="preserve">snake_bite_outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">59f. What was the outcome of the bite? (If bitten more than once, answer about the most severe bite)</t>
+    <t xml:space="preserve">q59f</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -194,1339 +191,973 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndkpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ynpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking_a_walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">church_mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searching_for_a_job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out_with_friends_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_bed_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friends_relatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_sunrise_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss_limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breastfeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronic_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injuries_from_an_accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental_health_disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epilepsy_(convulsions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart_problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmy_ago_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_of_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health_facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family_or_friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal_drug_vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community_leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trusted_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_midwife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protestant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian undetermined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atheist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptp_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 1 dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 2 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took more than 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_no_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant didn’t have malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not affordable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not deemed necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_where_now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emigrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone_new_in_the_household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_recent_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery_of_a_baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joints_pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizziness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chills-shivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss_smell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parents_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neither_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relation_to_hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">husband_wife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son_daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother_sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son_daughterinlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother_sisterinlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle_aunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandson_granddaughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stepchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adopted_son_daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cousin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nephew_niece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unrelated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non_resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_awake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4h before sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4h before sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2h before sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2h after sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4h after sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4h after sunset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_indoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_outdoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraceptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antihistamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiretrovirals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibiotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_mental_illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-fungal_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_epilepsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_blood_pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuesList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSessionVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned by household form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_day_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_month_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_year_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_enter_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_enter_age_approx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_dwmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_died_when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_died_when_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_emigrated_when_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_emigrated_when_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_emigrated_when_dmy_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emigrated_where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_newborn_or_moved_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_district_census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_census_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Member (New Household)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_hh_member_censed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_hh_member_censed_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_sign_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_sign_assent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_parent_sign_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_parent_sign_who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_under_12_parent_sign_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_under_12_parent_sign_consent_who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_who_respondent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_parents_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_rel_hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_with_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_main_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_chronic_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_chronic_disease_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_recent_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_yes_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_symptoms_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_seek_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_care_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_care_type_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_treatment_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_itchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_tunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_bed_bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_worms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_breastfeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_pregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_iptp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep_net_last_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep_net_last_night_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep_net_last_night_num_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_go_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_bed_activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_get_out_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_go_outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what_do_before_sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_abroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_regularly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_regularly_trips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
     <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not possible to retrieve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndkpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefer not to answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ynpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absence_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taking_a_walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taking a walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">church_mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Church/mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searching_for_a_job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching for a job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out_with_friends_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out with friends/family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tick this box if approximate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_bed_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain stories  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">friends_relatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spend time with friends or relatives </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch TV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listen to the radio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the news </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_sunrise_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetching water  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetching wood </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hang out with friends or relatives </t>
-  </si>
-  <si>
-    <t xml:space="preserve">home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside the home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside the compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loss_limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss of limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breastfeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own child </t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone else’s child/children </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronic_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injuries_from_an_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injuries from an accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental_health_disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental health disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilepsy_(convulsions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilepsy (convulsions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart_problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmy_ago_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day(s) ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week(s) ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month(s) ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_of_care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health_facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family_or_friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family or friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal_drug_vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal drug vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community_leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trusted_elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trusted elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_midwife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional midwife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within this district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside this district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catholic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protestant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian undetermined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atheist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptp_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 1 dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 2 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took more than 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, on the body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, on the head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than two weeks ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than two weeks ago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_no_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant didn’t have malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not deemed necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_where_now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He/she died </t>
-  </si>
-  <si>
-    <t xml:space="preserve">emigrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He/she emigrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">january</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">february</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February</t>
-  </si>
-  <si>
-    <t xml:space="preserve">march</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">april</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">june</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">july</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">august</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">september</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September</t>
-  </si>
-  <si>
-    <t xml:space="preserve">october</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October</t>
-  </si>
-  <si>
-    <t xml:space="preserve">november</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">december</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newborn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newborn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">someone_new_in_the_household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone new in the household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_recent_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery_of_a_baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery of a baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vomiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nausea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joints_pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joints pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dizziness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chills-shivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss_smell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss of smell and/or taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parents_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only living mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only living father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neither_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neither are alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relation_to_hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">husband_wife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband/wife of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son_daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son/daughter of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother_sister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brother/sister of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father/mother of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son_daughterinlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son/daughter in law of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother_sisterinlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brother/sister in law of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncle_aunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncle/aunt of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandson_granddaughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandson /granddaughter of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stepchild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stepchild of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adopted_son_daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adopted son/daughter of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cousin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cousin of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nephew_niece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nephew/Niece of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unrelated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unrelated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non_resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Resident member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomorrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomorrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_awake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4h before sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4h before sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2h before sunrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2h after sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4h after sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4h after sunset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_indoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_outdoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraceptive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antihistamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antiretrovirals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antibiotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_mental_illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for mental illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-fungal_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-fungal treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_epilepsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for epilepsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_blood_pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefer not to say</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valuesList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSessionVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assigned by household form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_candidate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_day_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_month_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_year_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_enter_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_enter_age_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absent Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_dwmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_died_when</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_died_when_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_emigrated_when_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_emigrated_when_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_emigrated_when_dmy_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emigrated_where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_newborn_or_moved_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_district_census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_census_extid_not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Member (New Household)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_hh_member_censed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_hh_member_censed_extid_not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake Bites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual Questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_sign_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_sign_assent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_parent_sign_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_parent_sign_who</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_under_12_parent_sign_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_under_12_parent_sign_consent_who</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_who_respondent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_parents_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_rel_hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_with_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_main_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_chronic_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_chronic_disease_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_recent_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_yes_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_symptoms_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_seek_care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_care_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_care_type_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_treatment_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_deficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_itchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_tunga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_bed_bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_worms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_breastfeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_iptp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep_net_last_night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep_net_last_night_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep_net_last_night_num_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_go_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_bed_activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_get_out_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_go_outside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_do_before_sunrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_abroad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_regularly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_regularly_trips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">display.title.text.pt</t>
@@ -1590,7 +1221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1621,9 +1252,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Cascadia mono semilight"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1631,6 +1262,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cascadia mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia mono semilight"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1719,7 +1357,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1728,23 +1366,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,7 +1482,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1881,15 +1527,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.99"/>
@@ -1897,15 +1543,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="81.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="81.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="36.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,36 +1568,33 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1959,7 +1602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +1610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +1618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1985,14 +1628,17 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2005,14 +1651,17 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2025,8 +1674,11 @@
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2034,7 +1686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2044,8 +1696,11 @@
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2055,13 +1710,16 @@
       <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2074,54 +1732,63 @@
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2142,27 +1809,27 @@
   </sheetPr>
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,40 +1840,40 @@
         <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,10 +1881,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,10 +1892,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,502 +1906,502 @@
         <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>57</v>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="C21" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>90</v>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,10 +2409,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,10 +2420,10 @@
         <v>41</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,10 +2431,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,10 +2442,10 @@
         <v>41</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,10 +2453,10 @@
         <v>41</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,1019 +2467,1019 @@
         <v>38</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,10 +3487,10 @@
         <v>25</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,10 +3498,10 @@
         <v>25</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,10 +3509,10 @@
         <v>25</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,10 +3520,10 @@
         <v>25</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,10 +3531,10 @@
         <v>25</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,10 +3542,10 @@
         <v>25</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,10 +3553,10 @@
         <v>25</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,10 +3564,10 @@
         <v>25</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>276</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,10 +3575,10 @@
         <v>25</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,10 +3586,10 @@
         <v>25</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,10 +3597,10 @@
         <v>25</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,10 +3608,10 @@
         <v>25</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,1008 +3622,1008 @@
         <v>38</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>341</v>
+        <v>235</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>342</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>349</v>
+        <v>240</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>350</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>371</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>372</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>374</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>375</v>
+        <v>262</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>375</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>377</v>
+        <v>264</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>377</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>378</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>380</v>
+        <v>267</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>382</v>
+        <v>268</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>382</v>
+        <v>268</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>388</v>
+        <v>272</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>389</v>
+        <v>273</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>389</v>
+        <v>273</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>390</v>
+        <v>274</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>391</v>
+        <v>274</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>393</v>
+        <v>275</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>394</v>
+        <v>276</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>399</v>
+        <v>278</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>401</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>402</v>
+        <v>280</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>403</v>
+        <v>280</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>404</v>
+        <v>61</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4977,8 +4644,8 @@
   </sheetPr>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4987,7 +4654,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.89"/>
   </cols>
   <sheetData>
@@ -5002,45 +4669,45 @@
         <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>405</v>
+        <v>281</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>406</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>409</v>
+        <v>283</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>409</v>
+      <c r="B3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>409</v>
+      <c r="B4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>409</v>
+      <c r="B5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -5048,36 +4715,36 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
+      <c r="B7" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -5085,18 +4752,18 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -5104,18 +4771,18 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -5123,100 +4790,100 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
+      <c r="B18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>427</v>
+      <c r="B20" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="0" t="s">
@@ -5224,43 +4891,43 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>427</v>
+      <c r="B26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -5268,100 +4935,100 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>427</v>
+      <c r="B28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C32" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>427</v>
+      <c r="B33" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -5369,24 +5036,24 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="0" t="s">
@@ -5394,32 +5061,32 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B41" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="0" t="s">
@@ -5427,10 +5094,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="0" t="s">
@@ -5438,18 +5105,18 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="0" t="s">
@@ -5457,10 +5124,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -5468,174 +5135,174 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="C47" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>455</v>
+      <c r="B52" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>455</v>
+      <c r="B54" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>455</v>
+      <c r="B55" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>462</v>
+      <c r="B59" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>463</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>47</v>
+      <c r="B62" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="0" t="s">
@@ -5643,78 +5310,78 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>47</v>
+      <c r="B65" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>47</v>
+      <c r="B67" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="B68" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>47</v>
+      <c r="B70" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="0" t="s">
@@ -5722,21 +5389,21 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C72" s="8" t="s">
+      <c r="B72" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="B73" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="0" t="s">
@@ -5744,120 +5411,120 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="B74" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="B78" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="B80" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="C82" s="8" t="s">
+      <c r="B82" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C83" s="8" t="s">
+      <c r="B83" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C84" s="8" t="s">
+      <c r="B84" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="0" t="s">
@@ -5865,18 +5532,18 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="B85" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="B86" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="0" t="s">
@@ -5884,109 +5551,109 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="B87" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="B89" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C90" s="8" t="s">
+      <c r="B90" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="B91" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C94" s="8" t="s">
+      <c r="B94" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="B95" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C96" s="8" t="s">
+      <c r="B96" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6009,7 +5676,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C:C B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6027,71 +5694,71 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>375</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>501</v>
+        <v>378</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>502</v>
+        <v>379</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>503</v>
+        <v>380</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>504</v>
+        <v>381</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>505</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>383</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>508</v>
+        <v>385</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>202101290001</v>
+        <v>202102040001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>386</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>511</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>512</v>
+        <v>389</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>512</v>
+        <v>389</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>512</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>513</v>
+        <v>390</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
@@ -6106,49 +5773,49 @@
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0" t="s">
-        <v>514</v>
+        <v>391</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>514</v>
+        <v>391</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>514</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>515</v>
+        <v>392</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0" t="s">
-        <v>516</v>
+        <v>393</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>516</v>
+        <v>393</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>516</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0" t="s">
-        <v>518</v>
+        <v>395</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>518</v>
+        <v>395</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>518</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_snake.xlsx
+++ b/odkx/forms/hh_member_snake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="519">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt</t>
+    <t xml:space="preserve">display.hint.text</t>
   </si>
   <si>
     <t xml:space="preserve">required</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">disaply.constraint_message</t>
+    <t xml:space="preserve">display.constraint_message.text</t>
   </si>
   <si>
     <t xml:space="preserve">inputAttributes.min</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">snake_bite_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q59a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_id</t>
+    <t xml:space="preserve">Snake Bite details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59a. Who was bitten?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ data.name }} {{data.surname }} [{{ data.id }}]</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">snake_bite_num_times</t>
   </si>
   <si>
-    <t xml:space="preserve">q59b</t>
+    <t xml:space="preserve">59b. How many times (separate instances) was {{data.name}} bitten?</t>
   </si>
   <si>
     <t xml:space="preserve">select_multiple</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">snake_bite_months</t>
   </si>
   <si>
-    <t xml:space="preserve">q59c</t>
+    <t xml:space="preserve">59c. In what month(s) was {{data.name}} bitten? (check all that apply)</t>
   </si>
   <si>
     <t xml:space="preserve">countSelected(data('snake_bite_months')) &lt;= data('snake_bite_num_times') </t>
   </si>
   <si>
-    <t xml:space="preserve">bite_too_many_months</t>
+    <t xml:space="preserve">You cannot select more months than times bitten.</t>
   </si>
   <si>
     <t xml:space="preserve">select_one</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">snake_bite_miss_work_school</t>
   </si>
   <si>
-    <t xml:space="preserve">q59d</t>
+    <t xml:space="preserve">59d. Did this person miss school/work days because of the bite?</t>
   </si>
   <si>
     <t xml:space="preserve">if</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">snake_bite_miss_work_school_days</t>
   </si>
   <si>
-    <t xml:space="preserve">q59di</t>
+    <t xml:space="preserve">59d(i). How many days?</t>
   </si>
   <si>
     <t xml:space="preserve">dk</t>
@@ -155,12 +155,15 @@
     <t xml:space="preserve">snake_bite_occur</t>
   </si>
   <si>
-    <t xml:space="preserve">q59e</t>
+    <t xml:space="preserve">59e. Where did the bites occur? (check all that apply)</t>
   </si>
   <si>
     <t xml:space="preserve">countSelected(data('snake_bite_occur')) &lt;= data('snake_bite_num_times')</t>
   </si>
   <si>
+    <t xml:space="preserve">You cannot select more places than times bitten.</t>
+  </si>
+  <si>
     <t xml:space="preserve">selected(data('snake_bite_occur'), 'other')</t>
   </si>
   <si>
@@ -170,7 +173,7 @@
     <t xml:space="preserve">snake_bite_occur_other</t>
   </si>
   <si>
-    <t xml:space="preserve">specify</t>
+    <t xml:space="preserve">Specify</t>
   </si>
   <si>
     <t xml:space="preserve">bite_outcome</t>
@@ -179,7 +182,7 @@
     <t xml:space="preserve">snake_bite_outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">q59f</t>
+    <t xml:space="preserve">59f. What was the outcome of the bite? (If bitten more than once, answer about the most severe bite)</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -191,27 +194,42 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title</t>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
   </si>
   <si>
     <t xml:space="preserve">not_possible</t>
   </si>
   <si>
+    <t xml:space="preserve">Not possible to retrieve</t>
+  </si>
+  <si>
     <t xml:space="preserve">yn</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">yndkpna</t>
   </si>
   <si>
     <t xml:space="preserve">pna</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefer not to answer</t>
+  </si>
+  <si>
     <t xml:space="preserve">ynpna</t>
   </si>
   <si>
@@ -221,54 +239,102 @@
     <t xml:space="preserve">work</t>
   </si>
   <si>
+    <t xml:space="preserve">Work</t>
+  </si>
+  <si>
     <t xml:space="preserve">farm</t>
   </si>
   <si>
+    <t xml:space="preserve">Farm</t>
+  </si>
+  <si>
     <t xml:space="preserve">taking_a_walk</t>
   </si>
   <si>
+    <t xml:space="preserve">Taking a walk</t>
+  </si>
+  <si>
     <t xml:space="preserve">church_mosque</t>
   </si>
   <si>
+    <t xml:space="preserve">Church/mosque</t>
+  </si>
+  <si>
     <t xml:space="preserve">school</t>
   </si>
   <si>
+    <t xml:space="preserve">School</t>
+  </si>
+  <si>
     <t xml:space="preserve">market</t>
   </si>
   <si>
+    <t xml:space="preserve">Market</t>
+  </si>
+  <si>
     <t xml:space="preserve">searching_for_a_job</t>
   </si>
   <si>
+    <t xml:space="preserve">Searching for a job</t>
+  </si>
+  <si>
     <t xml:space="preserve">out_with_friends_family</t>
   </si>
   <si>
+    <t xml:space="preserve">Out with friends/family</t>
+  </si>
+  <si>
     <t xml:space="preserve">sick</t>
   </si>
   <si>
+    <t xml:space="preserve">Sick</t>
+  </si>
+  <si>
     <t xml:space="preserve">travel</t>
   </si>
   <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t know</t>
+  </si>
+  <si>
     <t xml:space="preserve">other</t>
   </si>
   <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">approx</t>
   </si>
   <si>
+    <t xml:space="preserve">Tick this box if approximate</t>
+  </si>
+  <si>
     <t xml:space="preserve">before_bed_activity</t>
   </si>
   <si>
     <t xml:space="preserve">Cook</t>
   </si>
   <si>
+    <t xml:space="preserve">Cook </t>
+  </si>
+  <si>
     <t xml:space="preserve">Eat </t>
   </si>
   <si>
     <t xml:space="preserve">stories</t>
   </si>
   <si>
+    <t xml:space="preserve">Explain stories  </t>
+  </si>
+  <si>
     <t xml:space="preserve">friends_relatives</t>
   </si>
   <si>
+    <t xml:space="preserve">Spend time with friends or relatives </t>
+  </si>
+  <si>
     <t xml:space="preserve">Clean  </t>
   </si>
   <si>
@@ -281,12 +347,21 @@
     <t xml:space="preserve">tv</t>
   </si>
   <si>
+    <t xml:space="preserve">Watch TV </t>
+  </si>
+  <si>
     <t xml:space="preserve">radio</t>
   </si>
   <si>
+    <t xml:space="preserve">Listen to the radio </t>
+  </si>
+  <si>
     <t xml:space="preserve">news</t>
   </si>
   <si>
+    <t xml:space="preserve">Read the news </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pray </t>
   </si>
   <si>
@@ -296,9 +371,15 @@
     <t xml:space="preserve">water</t>
   </si>
   <si>
+    <t xml:space="preserve">Fetching water  </t>
+  </si>
+  <si>
     <t xml:space="preserve">wood</t>
   </si>
   <si>
+    <t xml:space="preserve">Fetching wood </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cook  </t>
   </si>
   <si>
@@ -308,40 +389,70 @@
     <t xml:space="preserve">Study </t>
   </si>
   <si>
+    <t xml:space="preserve">Hang out with friends or relatives </t>
+  </si>
+  <si>
     <t xml:space="preserve">home</t>
   </si>
   <si>
+    <t xml:space="preserve">Inside the home</t>
+  </si>
+  <si>
     <t xml:space="preserve">compound</t>
   </si>
   <si>
+    <t xml:space="preserve">Inside the compound</t>
+  </si>
+  <si>
     <t xml:space="preserve">field</t>
   </si>
   <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
     <t xml:space="preserve">road</t>
   </si>
   <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
     <t xml:space="preserve">death</t>
   </si>
   <si>
+    <t xml:space="preserve">Death</t>
+  </si>
+  <si>
     <t xml:space="preserve">loss_limb</t>
   </si>
   <si>
+    <t xml:space="preserve">Loss of limb</t>
+  </si>
+  <si>
     <t xml:space="preserve">full_recovery</t>
   </si>
   <si>
+    <t xml:space="preserve">Full recovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">partial_recovery</t>
   </si>
   <si>
+    <t xml:space="preserve">Partial recovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">breastfeed</t>
   </si>
   <si>
     <t xml:space="preserve">Own_child</t>
   </si>
   <si>
+    <t xml:space="preserve">Own child </t>
+  </si>
+  <si>
     <t xml:space="preserve">other_child</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">Someone else’s child/children </t>
   </si>
   <si>
     <t xml:space="preserve">chronic_disease</t>
@@ -350,18 +461,30 @@
     <t xml:space="preserve">Respiratory_disease</t>
   </si>
   <si>
+    <t xml:space="preserve">Respiratory disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diarrhoea</t>
   </si>
   <si>
     <t xml:space="preserve">Injuries_from_an_accident</t>
   </si>
   <si>
+    <t xml:space="preserve">Injuries from an accident</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skin_disease</t>
   </si>
   <si>
+    <t xml:space="preserve">Skin disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mental_health_disorder</t>
   </si>
   <si>
+    <t xml:space="preserve">Mental health disorder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Worms</t>
   </si>
   <si>
@@ -377,9 +500,15 @@
     <t xml:space="preserve">Epilepsy_(convulsions)</t>
   </si>
   <si>
+    <t xml:space="preserve">Epilepsy (convulsions)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heart_problems</t>
   </si>
   <si>
+    <t xml:space="preserve">Heart problems</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diabetes</t>
   </si>
   <si>
@@ -398,9 +527,15 @@
     <t xml:space="preserve">Amputated/atrophied_arm</t>
   </si>
   <si>
+    <t xml:space="preserve">Amputated/atrophied arm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amputated/atrophied_leg</t>
   </si>
   <si>
+    <t xml:space="preserve">Amputated/atrophied leg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paralysis</t>
   </si>
   <si>
@@ -410,7 +545,7 @@
     <t xml:space="preserve">none</t>
   </si>
   <si>
-    <t xml:space="preserve">pther</t>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">dmy_ago_dk</t>
@@ -419,75 +554,129 @@
     <t xml:space="preserve">days_ago</t>
   </si>
   <si>
+    <t xml:space="preserve">Day(s) ago</t>
+  </si>
+  <si>
     <t xml:space="preserve">weeks_ago</t>
   </si>
   <si>
+    <t xml:space="preserve">Week(s) ago</t>
+  </si>
+  <si>
     <t xml:space="preserve">months_ago</t>
   </si>
   <si>
+    <t xml:space="preserve">Month(s) ago</t>
+  </si>
+  <si>
     <t xml:space="preserve">dwmy</t>
   </si>
   <si>
     <t xml:space="preserve">days</t>
   </si>
   <si>
+    <t xml:space="preserve">Day(s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">weeks</t>
   </si>
   <si>
+    <t xml:space="preserve">Week(s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">months</t>
   </si>
   <si>
+    <t xml:space="preserve">Month(s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">years</t>
   </si>
   <si>
+    <t xml:space="preserve">Year(s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_of_care</t>
   </si>
   <si>
     <t xml:space="preserve">Health_facility</t>
   </si>
   <si>
+    <t xml:space="preserve">Health facility</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHW</t>
   </si>
   <si>
     <t xml:space="preserve">Family_or_friends</t>
   </si>
   <si>
+    <t xml:space="preserve">Family or friends</t>
+  </si>
+  <si>
     <t xml:space="preserve">Informal_drug_vendor</t>
   </si>
   <si>
+    <t xml:space="preserve">Informal drug vendor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pharmacy</t>
   </si>
   <si>
     <t xml:space="preserve">Traditional_healer</t>
   </si>
   <si>
+    <t xml:space="preserve">Traditional healer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Community_leader</t>
   </si>
   <si>
+    <t xml:space="preserve">Community leader</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trusted_elderly</t>
   </si>
   <si>
+    <t xml:space="preserve">Trusted elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traditional_midwife</t>
   </si>
   <si>
+    <t xml:space="preserve">Traditional midwife</t>
+  </si>
+  <si>
     <t xml:space="preserve">gender</t>
   </si>
   <si>
     <t xml:space="preserve">male</t>
   </si>
   <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
     <t xml:space="preserve">female</t>
   </si>
   <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
     <t xml:space="preserve">in_outside_district</t>
   </si>
   <si>
     <t xml:space="preserve">in_district</t>
   </si>
   <si>
+    <t xml:space="preserve">Within this district</t>
+  </si>
+  <si>
     <t xml:space="preserve">outside_district</t>
   </si>
   <si>
+    <t xml:space="preserve">Outside this district</t>
+  </si>
+  <si>
     <t xml:space="preserve">ind_religion</t>
   </si>
   <si>
@@ -521,6 +710,9 @@
     <t xml:space="preserve">Atheist</t>
   </si>
   <si>
+    <t xml:space="preserve">Don't know</t>
+  </si>
+  <si>
     <t xml:space="preserve">iptp_current</t>
   </si>
   <si>
@@ -542,21 +734,36 @@
     <t xml:space="preserve">body</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes, on the body</t>
+  </si>
+  <si>
     <t xml:space="preserve">head</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes, on the head</t>
+  </si>
+  <si>
     <t xml:space="preserve">lmp</t>
   </si>
   <si>
     <t xml:space="preserve">Less_than_two_weeks_ago</t>
   </si>
   <si>
+    <t xml:space="preserve">Less than two weeks ago</t>
+  </si>
+  <si>
     <t xml:space="preserve">More_than_two_weeks_ago</t>
   </si>
   <si>
+    <t xml:space="preserve">More than two weeks ago </t>
+  </si>
+  <si>
     <t xml:space="preserve">never</t>
   </si>
   <si>
+    <t xml:space="preserve">Never</t>
+  </si>
+  <si>
     <t xml:space="preserve">malaria_no_treatment</t>
   </si>
   <si>
@@ -584,60 +791,111 @@
     <t xml:space="preserve">Invalid</t>
   </si>
   <si>
+    <t xml:space="preserve">Don’t Know</t>
+  </si>
+  <si>
     <t xml:space="preserve">member_where_now</t>
   </si>
   <si>
     <t xml:space="preserve">died</t>
   </si>
   <si>
+    <t xml:space="preserve">He/she died </t>
+  </si>
+  <si>
     <t xml:space="preserve">emigrated</t>
   </si>
   <si>
+    <t xml:space="preserve">He/she emigrated</t>
+  </si>
+  <si>
     <t xml:space="preserve">january</t>
   </si>
   <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
     <t xml:space="preserve">february</t>
   </si>
   <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
     <t xml:space="preserve">march</t>
   </si>
   <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
     <t xml:space="preserve">april</t>
   </si>
   <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
     <t xml:space="preserve">may</t>
   </si>
   <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
     <t xml:space="preserve">june</t>
   </si>
   <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
     <t xml:space="preserve">july</t>
   </si>
   <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
     <t xml:space="preserve">august</t>
   </si>
   <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
     <t xml:space="preserve">september</t>
   </si>
   <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
     <t xml:space="preserve">october</t>
   </si>
   <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
     <t xml:space="preserve">november</t>
   </si>
   <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
     <t xml:space="preserve">december</t>
   </si>
   <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
     <t xml:space="preserve">new_member</t>
   </si>
   <si>
     <t xml:space="preserve">newborn</t>
   </si>
   <si>
+    <t xml:space="preserve">Newborn</t>
+  </si>
+  <si>
     <t xml:space="preserve">someone_new_in_the_household</t>
   </si>
   <si>
+    <t xml:space="preserve">Someone new in the household</t>
+  </si>
+  <si>
     <t xml:space="preserve">other_recent_disease</t>
   </si>
   <si>
@@ -653,6 +911,9 @@
     <t xml:space="preserve">Delivery_of_a_baby</t>
   </si>
   <si>
+    <t xml:space="preserve">Delivery of a baby</t>
+  </si>
+  <si>
     <t xml:space="preserve">other_symptoms</t>
   </si>
   <si>
@@ -665,6 +926,9 @@
     <t xml:space="preserve">Joints_pain</t>
   </si>
   <si>
+    <t xml:space="preserve">Joints pain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dizziness</t>
   </si>
   <si>
@@ -674,84 +938,153 @@
     <t xml:space="preserve">Loss_smell</t>
   </si>
   <si>
+    <t xml:space="preserve">Loss of smell and/or taste</t>
+  </si>
+  <si>
     <t xml:space="preserve">No_symptoms</t>
   </si>
   <si>
+    <t xml:space="preserve">No symptoms</t>
+  </si>
+  <si>
     <t xml:space="preserve">parents_alive</t>
   </si>
   <si>
     <t xml:space="preserve">both_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Both alive</t>
+  </si>
+  <si>
     <t xml:space="preserve">mother_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Only living mother</t>
+  </si>
+  <si>
     <t xml:space="preserve">father_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Only living father</t>
+  </si>
+  <si>
     <t xml:space="preserve">neither_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Neither are alive</t>
+  </si>
+  <si>
     <t xml:space="preserve">relation_to_hh_head</t>
   </si>
   <si>
     <t xml:space="preserve">husband_wife</t>
   </si>
   <si>
+    <t xml:space="preserve">Husband/wife of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">son_daughter</t>
   </si>
   <si>
+    <t xml:space="preserve">Son/daughter of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">brother_sister</t>
   </si>
   <si>
+    <t xml:space="preserve">Brother/sister of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">father_mother</t>
   </si>
   <si>
+    <t xml:space="preserve">Father/mother of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">son_daughterinlaw</t>
   </si>
   <si>
+    <t xml:space="preserve">Son/daughter in law of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">brother_sisterinlaw</t>
   </si>
   <si>
+    <t xml:space="preserve">Brother/sister in law of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">uncle_aunt</t>
   </si>
   <si>
+    <t xml:space="preserve">Uncle/aunt of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">grandson_granddaughter</t>
   </si>
   <si>
+    <t xml:space="preserve">Grandson /granddaughter of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">stepchild</t>
   </si>
   <si>
+    <t xml:space="preserve">Stepchild of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">adopted_son_daughter</t>
   </si>
   <si>
+    <t xml:space="preserve">Adopted son/daughter of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">cousin</t>
   </si>
   <si>
+    <t xml:space="preserve">Cousin of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">nephew_niece</t>
   </si>
   <si>
+    <t xml:space="preserve">Nephew/Niece of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">unrelated</t>
   </si>
   <si>
+    <t xml:space="preserve">Unrelated</t>
+  </si>
+  <si>
     <t xml:space="preserve">resident_status</t>
   </si>
   <si>
     <t xml:space="preserve">resident</t>
   </si>
   <si>
+    <t xml:space="preserve">Resident member</t>
+  </si>
+  <si>
     <t xml:space="preserve">non_resident</t>
   </si>
   <si>
+    <t xml:space="preserve">Non-Resident member</t>
+  </si>
+  <si>
     <t xml:space="preserve">return_time</t>
   </si>
   <si>
     <t xml:space="preserve">today</t>
   </si>
   <si>
+    <t xml:space="preserve">Today</t>
+  </si>
+  <si>
     <t xml:space="preserve">tomorrow</t>
   </si>
   <si>
+    <t xml:space="preserve">Tomorrow</t>
+  </si>
+  <si>
     <t xml:space="preserve">time_awake</t>
   </si>
   <si>
@@ -806,12 +1139,18 @@
     <t xml:space="preserve">CAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
@@ -830,12 +1169,18 @@
     <t xml:space="preserve">Treatment_for_pain</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for pain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contraceptive</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment_for_malaria</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for malaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antihistamine</t>
   </si>
   <si>
@@ -845,30 +1190,57 @@
     <t xml:space="preserve">Treatment_for_tuberculosis</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for tuberculosis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antibiotic</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment_for_stress</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for stress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_mental_illness</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for mental illness</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anti-fungal_treatment</t>
   </si>
   <si>
+    <t xml:space="preserve">Anti-fungal treatment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_epilepsy</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for epilepsy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_diarrhoea</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for diarrhoea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_blood_pressure</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for blood pressure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traditional_medicine</t>
   </si>
   <si>
+    <t xml:space="preserve">Traditional medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefer not to say</t>
+  </si>
+  <si>
     <t xml:space="preserve">valuesList</t>
   </si>
   <si>
@@ -1155,9 +1527,6 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">display.title.text.pt</t>
@@ -1221,7 +1590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1252,9 +1621,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Cascadia mono semilight"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1262,13 +1631,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cascadia mono"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cascadia mono semilight"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1357,7 +1719,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1366,31 +1728,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1482,7 +1836,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1527,15 +1881,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.99"/>
@@ -1543,15 +1897,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="81.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="36.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="81.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,33 +1922,36 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +1959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,7 +1967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1618,7 +1975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1628,17 +1985,14 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,17 +2005,14 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1674,11 +2025,8 @@
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1686,7 +2034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1696,11 +2044,8 @@
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,16 +2055,13 @@
       <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1732,63 +2074,54 @@
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1809,27 +2142,27 @@
   </sheetPr>
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,40 +2173,40 @@
         <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +2214,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,10 +2225,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,502 +2239,502 @@
         <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
+      <c r="C11" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
+      <c r="C26" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,10 +2742,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,10 +2753,10 @@
         <v>41</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,10 +2764,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,10 +2775,10 @@
         <v>41</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,10 +2786,10 @@
         <v>41</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,1019 +2800,1019 @@
         <v>38</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,10 +3820,10 @@
         <v>25</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,10 +3831,10 @@
         <v>25</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +3842,10 @@
         <v>25</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,10 +3853,10 @@
         <v>25</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,10 +3864,10 @@
         <v>25</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,10 +3875,10 @@
         <v>25</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,10 +3886,10 @@
         <v>25</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,10 +3897,10 @@
         <v>25</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,10 +3908,10 @@
         <v>25</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,10 +3919,10 @@
         <v>25</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,10 +3930,10 @@
         <v>25</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,10 +3941,10 @@
         <v>25</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,1008 +3955,1008 @@
         <v>38</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>215</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>228</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>229</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>232</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>238</v>
+        <v>347</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>259</v>
+        <v>370</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>267</v>
+        <v>380</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>267</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>268</v>
+        <v>382</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>268</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>269</v>
+        <v>383</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>269</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>270</v>
+        <v>385</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>270</v>
+        <v>385</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>274</v>
+        <v>391</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>276</v>
+        <v>394</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>280</v>
+        <v>402</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>61</v>
+        <v>404</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4644,8 +4977,8 @@
   </sheetPr>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4654,7 +4987,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.89"/>
   </cols>
   <sheetData>
@@ -4669,45 +5002,45 @@
         <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>285</v>
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>285</v>
+      <c r="B3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>285</v>
+      <c r="B4" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>285</v>
+      <c r="B5" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -4715,36 +5048,36 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>46</v>
+      <c r="B7" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -4752,18 +5085,18 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -4771,18 +5104,18 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -4790,100 +5123,100 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
+      <c r="B18" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>303</v>
+      <c r="B20" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="0" t="s">
@@ -4891,43 +5224,43 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>303</v>
+      <c r="B26" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -4935,100 +5268,100 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>303</v>
+      <c r="B28" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>303</v>
+      <c r="B33" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -5036,24 +5369,24 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C39" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="0" t="s">
@@ -5061,32 +5394,32 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B41" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="0" t="s">
@@ -5094,10 +5427,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="0" t="s">
@@ -5105,18 +5438,18 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="0" t="s">
@@ -5124,10 +5457,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -5135,174 +5468,174 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C49" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>331</v>
+      <c r="B52" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>331</v>
+      <c r="B54" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>331</v>
+      <c r="B55" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D58" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>338</v>
+      <c r="B59" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>339</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>46</v>
+      <c r="B62" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="0" t="s">
@@ -5310,78 +5643,78 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>46</v>
+      <c r="B65" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>46</v>
+      <c r="B67" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>46</v>
+      <c r="B70" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="0" t="s">
@@ -5389,21 +5722,21 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="B72" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="0" t="s">
@@ -5411,120 +5744,120 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="B74" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C76" s="10" t="s">
+      <c r="B76" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="B77" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="B78" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="B79" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="0" t="s">
@@ -5532,18 +5865,18 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="B85" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="B86" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="0" t="s">
@@ -5551,109 +5884,109 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="B87" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C88" s="10" t="s">
+      <c r="B88" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C89" s="10" t="s">
+      <c r="B89" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="B90" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="B92" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="B93" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="B94" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C95" s="10" t="s">
+      <c r="B95" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5676,7 +6009,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C:C B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5694,71 +6027,71 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>377</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>378</v>
+        <v>501</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>379</v>
+        <v>502</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>380</v>
+        <v>503</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>381</v>
+        <v>504</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>382</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>384</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>508</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>202102040001</v>
+        <v>202101290001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>509</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>387</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>512</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>389</v>
+        <v>512</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>389</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>390</v>
+        <v>513</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
@@ -5773,49 +6106,49 @@
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>392</v>
+        <v>515</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>394</v>
+        <v>517</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_snake.xlsx
+++ b/odkx/forms/hh_member_snake.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="526">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1263,6 +1263,27 @@
   </si>
   <si>
     <t xml:space="preserve">id_candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_new_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_snake</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
@@ -1590,7 +1611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1624,6 +1645,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cascadia mono semilight"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1719,7 +1747,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1729,6 +1757,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1748,11 +1780,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4975,10 +5007,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4987,8 +5019,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="6" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,6 +5051,7 @@
       <c r="C2" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
@@ -5026,6 +5060,7 @@
       <c r="C3" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
@@ -5034,6 +5069,7 @@
       <c r="C4" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
@@ -5042,156 +5078,156 @@
       <c r="C5" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>348</v>
-      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>427</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
@@ -5200,795 +5236,2929 @@
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>181</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="s">
-        <v>430</v>
+        <v>207</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>69</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B25" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
         <v>432</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>427</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
         <v>433</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>427</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>174</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>437</v>
+        <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>212</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>438</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>439</v>
+        <v>256</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>285</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>427</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>174</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>212</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>31</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>58</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
-        <v>26</v>
+        <v>449</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>25</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>31</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7" t="s">
-        <v>36</v>
+        <v>451</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="7" t="s">
-        <v>39</v>
+        <v>452</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="D47" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>50</v>
-      </c>
+      <c r="A48" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="B49" s="8" t="s">
-        <v>451</v>
+        <v>26</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>60</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
-        <v>452</v>
+        <v>32</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>60</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
-        <v>453</v>
+        <v>36</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
-        <v>454</v>
+        <v>39</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>455</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
-        <v>456</v>
+        <v>42</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>60</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
-        <v>457</v>
+        <v>48</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>455</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D57" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D64" s="0" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="8" t="s">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D65" s="0" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D67" s="0" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D68" s="0" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D75" s="0" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D78" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C72" s="8" t="s">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D79" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D80" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D81" s="0" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D82" s="0" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D83" s="0" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D85" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D86" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D87" s="0" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D88" s="0" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="C82" s="8" t="s">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D89" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C83" s="8" t="s">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D90" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C84" s="8" t="s">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D91" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D93" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="8" t="s">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D95" s="0" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D96" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C90" s="8" t="s">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D97" s="0" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D98" s="0" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D99" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C93" s="8" t="s">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D100" s="0" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="8" t="s">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D101" s="0" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D102" s="0" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C96" s="8" t="s">
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E370" s="3"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E371" s="3"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E372" s="3"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E373" s="3"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E374" s="3"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E375" s="3"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E376" s="3"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E377" s="3"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E378" s="3"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E379" s="3"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E381" s="3"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E385" s="3"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E386" s="3"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E387" s="3"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E388" s="3"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E389" s="3"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E390" s="3"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E391" s="3"/>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E392" s="3"/>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E393" s="3"/>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E394" s="3"/>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E395" s="3"/>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E396" s="3"/>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E397" s="3"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E398" s="3"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E399" s="3"/>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E400" s="3"/>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E401" s="3"/>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E402" s="3"/>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E403" s="3"/>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E404" s="3"/>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E405" s="3"/>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E406" s="3"/>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E407" s="3"/>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E408" s="3"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E409" s="3"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E410" s="3"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E411" s="3"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E412" s="3"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E413" s="3"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E414" s="3"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E415" s="3"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E416" s="3"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E417" s="3"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E418" s="3"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E419" s="3"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E420" s="3"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E421" s="3"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E422" s="3"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E423" s="3"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E424" s="3"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E425" s="3"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E426" s="3"/>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E427" s="3"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E428" s="3"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E429" s="3"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E430" s="3"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E431" s="3"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E432" s="3"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E433" s="3"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E434" s="3"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E435" s="3"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E436" s="3"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E437" s="3"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E438" s="3"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E439" s="3"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E440" s="3"/>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E441" s="3"/>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E442" s="3"/>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E443" s="3"/>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E444" s="3"/>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E445" s="3"/>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E446" s="3"/>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E447" s="3"/>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E448" s="3"/>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E449" s="3"/>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E450" s="3"/>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E451" s="3"/>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E452" s="3"/>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E453" s="3"/>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E454" s="3"/>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E455" s="3"/>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E456" s="3"/>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E457" s="3"/>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E458" s="3"/>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E459" s="3"/>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E460" s="3"/>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E461" s="3"/>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E462" s="3"/>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E463" s="3"/>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E464" s="3"/>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E465" s="3"/>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E466" s="3"/>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E467" s="3"/>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E468" s="3"/>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E469" s="3"/>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E470" s="3"/>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E471" s="3"/>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E472" s="3"/>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E473" s="3"/>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E474" s="3"/>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E475" s="3"/>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E476" s="3"/>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E477" s="3"/>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E478" s="3"/>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E479" s="3"/>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E480" s="3"/>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E481" s="3"/>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E482" s="3"/>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E483" s="3"/>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E484" s="3"/>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E485" s="3"/>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E486" s="3"/>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E487" s="3"/>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E488" s="3"/>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E489" s="3"/>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E490" s="3"/>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E491" s="3"/>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E492" s="3"/>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E493" s="3"/>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E494" s="3"/>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E495" s="3"/>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E496" s="3"/>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E497" s="3"/>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E498" s="3"/>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E499" s="3"/>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E500" s="3"/>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E501" s="3"/>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E502" s="3"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E503" s="3"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E504" s="3"/>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E505" s="3"/>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E506" s="3"/>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E507" s="3"/>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E508" s="3"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E509" s="3"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E510" s="3"/>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E511" s="3"/>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E512" s="3"/>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E513" s="3"/>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E514" s="3"/>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E515" s="3"/>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E516" s="3"/>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E517" s="3"/>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E518" s="3"/>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E519" s="3"/>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E520" s="3"/>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E521" s="3"/>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E522" s="3"/>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E523" s="3"/>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E524" s="3"/>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E525" s="3"/>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E526" s="3"/>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E527" s="3"/>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E528" s="3"/>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E529" s="3"/>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E530" s="3"/>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E531" s="3"/>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E532" s="3"/>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E533" s="3"/>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E534" s="3"/>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E535" s="3"/>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E536" s="3"/>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E537" s="3"/>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E538" s="3"/>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E539" s="3"/>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E540" s="3"/>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E541" s="3"/>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E542" s="3"/>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E543" s="3"/>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E544" s="3"/>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E545" s="3"/>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E546" s="3"/>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E547" s="3"/>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E548" s="3"/>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E549" s="3"/>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E550" s="3"/>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E551" s="3"/>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E552" s="3"/>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E553" s="3"/>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E554" s="3"/>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E555" s="3"/>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E556" s="3"/>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E557" s="3"/>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E558" s="3"/>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E559" s="3"/>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E560" s="3"/>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E561" s="3"/>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E562" s="3"/>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E563" s="3"/>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E564" s="3"/>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E565" s="3"/>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E566" s="3"/>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E567" s="3"/>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E568" s="3"/>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E569" s="3"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E570" s="3"/>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E571" s="3"/>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E572" s="3"/>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E573" s="3"/>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E574" s="3"/>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E575" s="3"/>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E576" s="3"/>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E577" s="3"/>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E578" s="3"/>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E579" s="3"/>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E580" s="3"/>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E581" s="3"/>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E582" s="3"/>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E583" s="3"/>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E584" s="3"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E585" s="3"/>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E586" s="3"/>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E587" s="3"/>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E588" s="3"/>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E589" s="3"/>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E590" s="3"/>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E591" s="3"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E592" s="3"/>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E593" s="3"/>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E594" s="3"/>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E595" s="3"/>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E596" s="3"/>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E597" s="3"/>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E598" s="3"/>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E599" s="3"/>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E600" s="3"/>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E601" s="3"/>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E602" s="3"/>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E603" s="3"/>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E604" s="3"/>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E605" s="3"/>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E606" s="3"/>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E607" s="3"/>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E608" s="3"/>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E609" s="3"/>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E610" s="3"/>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E611" s="3"/>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E612" s="3"/>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E613" s="3"/>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E614" s="3"/>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E615" s="3"/>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E616" s="3"/>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E617" s="3"/>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E618" s="3"/>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E619" s="3"/>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E620" s="3"/>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E621" s="3"/>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E622" s="3"/>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E623" s="3"/>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E624" s="3"/>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E625" s="3"/>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E626" s="3"/>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E627" s="3"/>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E628" s="3"/>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E629" s="3"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E630" s="3"/>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E631" s="3"/>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E632" s="3"/>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E633" s="3"/>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E634" s="3"/>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E635" s="3"/>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E636" s="3"/>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E637" s="3"/>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E638" s="3"/>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E639" s="3"/>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E640" s="3"/>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E641" s="3"/>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E642" s="3"/>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E643" s="3"/>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E644" s="3"/>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E645" s="3"/>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E646" s="3"/>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E647" s="3"/>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E648" s="3"/>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E649" s="3"/>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E650" s="3"/>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E651" s="3"/>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E652" s="3"/>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E653" s="3"/>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E654" s="3"/>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E655" s="3"/>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E656" s="3"/>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E657" s="3"/>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E658" s="3"/>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E659" s="3"/>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E660" s="3"/>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E661" s="3"/>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E662" s="3"/>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E663" s="3"/>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E664" s="3"/>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E665" s="3"/>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E666" s="3"/>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E667" s="3"/>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E668" s="3"/>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E669" s="3"/>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E670" s="3"/>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E671" s="3"/>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E672" s="3"/>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E673" s="3"/>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E674" s="3"/>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E675" s="3"/>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E676" s="3"/>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E677" s="3"/>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E678" s="3"/>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E679" s="3"/>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E680" s="3"/>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E681" s="3"/>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E682" s="3"/>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E683" s="3"/>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E684" s="3"/>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E685" s="3"/>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E686" s="3"/>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E687" s="3"/>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E688" s="3"/>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E689" s="3"/>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E690" s="3"/>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E691" s="3"/>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E692" s="3"/>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E693" s="3"/>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E694" s="3"/>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E695" s="3"/>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E696" s="3"/>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E697" s="3"/>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E698" s="3"/>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E699" s="3"/>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E700" s="3"/>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E701" s="3"/>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E702" s="3"/>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E703" s="3"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E704" s="3"/>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E705" s="3"/>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E706" s="3"/>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E707" s="3"/>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E708" s="3"/>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E709" s="3"/>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E710" s="3"/>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E711" s="3"/>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E712" s="3"/>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E713" s="3"/>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E714" s="3"/>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E715" s="3"/>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E716" s="3"/>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E717" s="3"/>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E718" s="3"/>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E719" s="3"/>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E720" s="3"/>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E721" s="3"/>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E722" s="3"/>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E723" s="3"/>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E724" s="3"/>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E725" s="3"/>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E726" s="3"/>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E727" s="3"/>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E728" s="3"/>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E729" s="3"/>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E730" s="3"/>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E731" s="3"/>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E732" s="3"/>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E733" s="3"/>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E734" s="3"/>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E735" s="3"/>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E736" s="3"/>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E737" s="3"/>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E738" s="3"/>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E739" s="3"/>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E740" s="3"/>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E741" s="3"/>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E742" s="3"/>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E743" s="3"/>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E744" s="3"/>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E745" s="3"/>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E746" s="3"/>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E747" s="3"/>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E748" s="3"/>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E749" s="3"/>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E750" s="3"/>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E751" s="3"/>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E752" s="3"/>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E753" s="3"/>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E754" s="3"/>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E755" s="3"/>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E756" s="3"/>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E757" s="3"/>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E758" s="3"/>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E759" s="3"/>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E760" s="3"/>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E761" s="3"/>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E762" s="3"/>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E763" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6027,41 +8197,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>202101290001</v>
@@ -6069,29 +8239,29 @@
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
@@ -6106,49 +8276,49 @@
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_snake.xlsx
+++ b/odkx/forms/hh_member_snake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="404">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t xml:space="preserve">new_member_move_in_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_date</t>
   </si>
   <si>
     <t xml:space="preserve">new_member_move_in_enter</t>
@@ -4676,8 +4679,8 @@
   </sheetPr>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5117,13 +5120,13 @@
         <v>323</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>21</v>
@@ -5132,7 +5135,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -5144,7 +5147,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>30</v>
@@ -5156,7 +5159,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>30</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>24</v>
@@ -5180,10 +5183,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>30</v>
@@ -5195,7 +5198,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>24</v>
@@ -5207,7 +5210,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>22</v>
@@ -5297,10 +5300,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>30</v>
@@ -5312,7 +5315,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>30</v>
@@ -5324,7 +5327,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>30</v>
@@ -5336,16 +5339,16 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>30</v>
@@ -5357,25 +5360,25 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>30</v>
@@ -5387,7 +5390,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>30</v>
@@ -5411,19 +5414,19 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>24</v>
@@ -5435,7 +5438,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>24</v>
@@ -5447,7 +5450,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>46</v>
@@ -5456,7 +5459,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>30</v>
@@ -5468,7 +5471,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>24</v>
@@ -5480,7 +5483,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>46</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>24</v>
@@ -5501,7 +5504,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>46</v>
@@ -5510,7 +5513,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>30</v>
@@ -5522,7 +5525,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>24</v>
@@ -5534,7 +5537,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>46</v>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>30</v>
@@ -5555,7 +5558,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>30</v>
@@ -5567,7 +5570,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>30</v>
@@ -5579,7 +5582,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>30</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>24</v>
@@ -5603,7 +5606,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>24</v>
@@ -5615,7 +5618,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>30</v>
@@ -5627,7 +5630,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>30</v>
@@ -5639,7 +5642,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>30</v>
@@ -5651,7 +5654,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>30</v>
@@ -5663,7 +5666,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>30</v>
@@ -5675,7 +5678,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>30</v>
@@ -5687,7 +5690,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>30</v>
@@ -5699,7 +5702,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>30</v>
@@ -5711,7 +5714,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>21</v>
@@ -5720,7 +5723,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>30</v>
@@ -5744,7 +5747,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>30</v>
@@ -5756,7 +5759,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>24</v>
@@ -5768,7 +5771,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>30</v>
@@ -5780,7 +5783,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>30</v>
@@ -5792,7 +5795,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>24</v>
@@ -5804,7 +5807,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>30</v>
@@ -5828,7 +5831,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>30</v>
@@ -5840,7 +5843,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>21</v>
@@ -7845,7 +7848,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7864,71 +7867,71 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>202102040001</v>
+        <v>202102060001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
@@ -7943,49 +7946,49 @@
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
